--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ProductId</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>323</t>
+  </si>
+  <si>
+    <t>yaochong</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -78,22 +84,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
@@ -116,7 +123,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="0">
+      <c r="A2" t="n" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
@@ -135,7 +142,30 @@
         <v>213.0</v>
       </c>
       <c r="G2" t="n" s="0">
+        <v>-2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
         <v>20.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>48.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ProductId</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>cc</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>mci</t>
+  </si>
+  <si>
+    <t>chen</t>
   </si>
 </sst>
 </file>
@@ -123,29 +132,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>332.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>213.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="3">
       <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
@@ -165,7 +151,30 @@
         <v>20.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>48.0</v>
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>87.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ProductId</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>chen</t>
   </si>
+  <si>
+    <t>hello</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,26 +158,26 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
+      <c r="A4" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>19.0</v>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>28.0</v>
+      <c r="F4" t="n" s="0">
+        <v>30.0</v>
       </c>
-      <c r="G3" t="n" s="0">
-        <v>87.0</v>
+      <c r="G4" t="n" s="0">
+        <v>212.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ProductId</t>
   </si>
@@ -61,6 +61,15 @@
   <si>
     <t>hello</t>
   </si>
+  <si>
+    <t>kdfj</t>
+  </si>
+  <si>
+    <t>kdjf</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,7 +186,7 @@
         <v>30.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>212.0</v>
+        <v>202.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -114,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -143,52 +143,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>202.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ProductId</t>
   </si>
@@ -35,40 +35,22 @@
     <t>Nums</t>
   </si>
   <si>
-    <t/>
+    <t>132</t>
+  </si>
+  <si>
+    <t>ckjdl</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>323</t>
+    <t>djakl</t>
   </si>
   <si>
-    <t>yaochong</t>
+    <t>1</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cpp</t>
-  </si>
-  <si>
-    <t>mci</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>kdfj</t>
-  </si>
-  <si>
-    <t>kdjf</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -105,23 +87,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
@@ -143,6 +124,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>2132.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>2390.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>84.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -35,22 +35,22 @@
     <t>Nums</t>
   </si>
   <si>
-    <t>132</t>
+    <t>product</t>
   </si>
   <si>
-    <t>ckjdl</t>
+    <t>factory</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13.0</t>
   </si>
   <si>
-    <t>djakl</t>
+    <t>hello</t>
   </si>
   <si>
-    <t>1</t>
+    <t>producer</t>
   </si>
   <si>
-    <t>23</t>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -138,18 +138,18 @@
         <v>9</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>2132.0</v>
+        <v>120.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>678.0</v>
+        <v>130.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>21.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>10</v>
@@ -161,13 +161,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>432.0</v>
+        <v>100.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>2390.0</v>
+        <v>120.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>84.0</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ProductId</t>
   </si>
@@ -35,22 +35,13 @@
     <t>Nums</t>
   </si>
   <si>
-    <t>product</t>
+    <t>good</t>
   </si>
   <si>
-    <t>factory</t>
+    <t>maker</t>
   </si>
   <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>producer</t>
-  </si>
-  <si>
-    <t>12.0</t>
+    <t>14.0</t>
   </si>
 </sst>
 </file>
@@ -95,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,7 +117,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>7</v>
@@ -138,36 +129,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>200.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>120.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>
